--- a/data/Projected State Use -APR25.xlsx
+++ b/data/Projected State Use -APR25.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\COM460\24MONTH\2025\04-APR25\QAQC_SupportingDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{096AF024-93E7-4743-89E6-7C9465DF3FC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C553F07B-5EC1-4484-B45D-D67AA1999F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58995" yWindow="3300" windowWidth="19740" windowHeight="17595" tabRatio="810" activeTab="2" xr2:uid="{5728D596-1F66-46AA-95D1-D62637A5657E}"/>
+    <workbookView xWindow="51825" yWindow="2040" windowWidth="17460" windowHeight="17895" tabRatio="810" activeTab="2" xr2:uid="{5728D596-1F66-46AA-95D1-D62637A5657E}"/>
   </bookViews>
   <sheets>
     <sheet name="2025" sheetId="31" r:id="rId1"/>
@@ -5230,6 +5230,36 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="105" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="7" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -5290,35 +5320,17 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="106" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5328,18 +5340,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -21282,7 +21282,7 @@
       <c r="K3" s="400" t="s">
         <v>174</v>
       </c>
-      <c r="W3" s="540" t="s">
+      <c r="W3" s="550" t="s">
         <v>128</v>
       </c>
       <c r="X3" s="476" t="s">
@@ -21334,7 +21334,7 @@
         <f t="shared" ref="K4:K20" si="2">SUM(F4:I4)</f>
         <v>494200</v>
       </c>
-      <c r="W4" s="541"/>
+      <c r="W4" s="551"/>
       <c r="X4" s="480" t="s">
         <v>465</v>
       </c>
@@ -21388,7 +21388,7 @@
         <f t="shared" si="2"/>
         <v>55732</v>
       </c>
-      <c r="W5" s="541"/>
+      <c r="W5" s="551"/>
       <c r="X5" s="476" t="s">
         <v>466</v>
       </c>
@@ -21442,7 +21442,7 @@
         <f t="shared" si="2"/>
         <v>94157</v>
       </c>
-      <c r="W6" s="541"/>
+      <c r="W6" s="551"/>
       <c r="X6" s="480" t="s">
         <v>467</v>
       </c>
@@ -21496,7 +21496,7 @@
         <f t="shared" si="2"/>
         <v>140000</v>
       </c>
-      <c r="W7" s="541"/>
+      <c r="W7" s="551"/>
       <c r="X7" s="476" t="s">
         <v>468</v>
       </c>
@@ -21550,7 +21550,7 @@
         <f t="shared" si="2"/>
         <v>20906</v>
       </c>
-      <c r="W8" s="541"/>
+      <c r="W8" s="551"/>
       <c r="X8" s="480" t="s">
         <v>469</v>
       </c>
@@ -21604,7 +21604,7 @@
         <f t="shared" si="2"/>
         <v>402271</v>
       </c>
-      <c r="W9" s="541"/>
+      <c r="W9" s="551"/>
       <c r="X9" s="476" t="s">
         <v>470</v>
       </c>
@@ -21658,7 +21658,7 @@
         <f t="shared" si="2"/>
         <v>8667</v>
       </c>
-      <c r="W10" s="541"/>
+      <c r="W10" s="551"/>
       <c r="X10" s="480" t="s">
         <v>471</v>
       </c>
@@ -21712,7 +21712,7 @@
         <f t="shared" si="2"/>
         <v>12960</v>
       </c>
-      <c r="W11" s="541"/>
+      <c r="W11" s="551"/>
       <c r="X11" s="476" t="s">
         <v>472</v>
       </c>
@@ -21766,7 +21766,7 @@
         <f t="shared" si="2"/>
         <v>239</v>
       </c>
-      <c r="W12" s="541"/>
+      <c r="W12" s="551"/>
       <c r="X12" s="480" t="s">
         <v>473</v>
       </c>
@@ -21820,7 +21820,7 @@
         <f t="shared" si="2"/>
         <v>87233</v>
       </c>
-      <c r="W13" s="542"/>
+      <c r="W13" s="552"/>
       <c r="X13" s="478" t="s">
         <v>474</v>
       </c>
@@ -21874,7 +21874,7 @@
         <f t="shared" si="2"/>
         <v>54274</v>
       </c>
-      <c r="W14" s="554" t="s">
+      <c r="W14" s="564" t="s">
         <v>126</v>
       </c>
       <c r="X14" s="482" t="s">
@@ -21930,7 +21930,7 @@
         <f t="shared" si="2"/>
         <v>11856</v>
       </c>
-      <c r="W15" s="555"/>
+      <c r="W15" s="565"/>
       <c r="X15" s="476" t="s">
         <v>477</v>
       </c>
@@ -21984,7 +21984,7 @@
         <f t="shared" si="2"/>
         <v>806111</v>
       </c>
-      <c r="W16" s="555"/>
+      <c r="W16" s="565"/>
       <c r="X16" s="480" t="s">
         <v>476</v>
       </c>
@@ -22038,7 +22038,7 @@
         <f t="shared" si="2"/>
         <v>52000</v>
       </c>
-      <c r="W17" s="555"/>
+      <c r="W17" s="565"/>
       <c r="X17" s="476" t="s">
         <v>478</v>
       </c>
@@ -22088,7 +22088,7 @@
         <f t="shared" si="2"/>
         <v>385379</v>
       </c>
-      <c r="W18" s="555"/>
+      <c r="W18" s="565"/>
       <c r="X18" s="480" t="s">
         <v>479</v>
       </c>
@@ -22137,7 +22137,7 @@
       <c r="L19" s="436" t="s">
         <v>446</v>
       </c>
-      <c r="W19" s="555"/>
+      <c r="W19" s="565"/>
       <c r="X19" s="476" t="s">
         <v>480</v>
       </c>
@@ -22194,7 +22194,7 @@
       <c r="L20" s="436" t="s">
         <v>446</v>
       </c>
-      <c r="W20" s="555"/>
+      <c r="W20" s="565"/>
       <c r="X20" s="480" t="s">
         <v>490</v>
       </c>
@@ -22244,7 +22244,7 @@
         <f>SUM(K4:K20)</f>
         <v>2706997</v>
       </c>
-      <c r="W21" s="556"/>
+      <c r="W21" s="566"/>
       <c r="X21" s="487" t="s">
         <v>481</v>
       </c>
@@ -22291,7 +22291,7 @@
       </c>
       <c r="J22" s="411"/>
       <c r="K22" s="412"/>
-      <c r="W22" s="543" t="s">
+      <c r="W22" s="553" t="s">
         <v>127</v>
       </c>
       <c r="X22" s="485" t="s">
@@ -22315,7 +22315,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W23" s="544"/>
+      <c r="W23" s="554"/>
       <c r="X23" s="487" t="s">
         <v>482</v>
       </c>
@@ -22338,7 +22338,7 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.2">
       <c r="G24" s="437"/>
-      <c r="W24" s="545"/>
+      <c r="W24" s="555"/>
       <c r="X24" s="489" t="s">
         <v>441</v>
       </c>
@@ -22367,7 +22367,7 @@
       <c r="N25" s="438"/>
       <c r="O25" s="438"/>
       <c r="P25" s="438"/>
-      <c r="W25" s="546"/>
+      <c r="W25" s="556"/>
       <c r="X25" s="487" t="s">
         <v>392</v>
       </c>
@@ -23907,7 +23907,7 @@
       </c>
     </row>
     <row r="52" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D52" s="551" t="s">
+      <c r="D52" s="561" t="s">
         <v>128</v>
       </c>
       <c r="E52" s="452" t="s">
@@ -23934,7 +23934,7 @@
       </c>
     </row>
     <row r="53" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D53" s="552"/>
+      <c r="D53" s="562"/>
       <c r="E53" s="455" t="s">
         <v>386</v>
       </c>
@@ -23964,7 +23964,7 @@
       </c>
     </row>
     <row r="54" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D54" s="552"/>
+      <c r="D54" s="562"/>
       <c r="E54" s="458" t="s">
         <v>425</v>
       </c>
@@ -23994,7 +23994,7 @@
       </c>
     </row>
     <row r="55" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D55" s="552"/>
+      <c r="D55" s="562"/>
       <c r="E55" s="459" t="s">
         <v>390</v>
       </c>
@@ -24024,7 +24024,7 @@
       </c>
     </row>
     <row r="56" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D56" s="552"/>
+      <c r="D56" s="562"/>
       <c r="E56" s="452" t="s">
         <v>387</v>
       </c>
@@ -24054,7 +24054,7 @@
       </c>
     </row>
     <row r="57" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D57" s="552"/>
+      <c r="D57" s="562"/>
       <c r="E57" s="459" t="s">
         <v>424</v>
       </c>
@@ -24084,7 +24084,7 @@
       </c>
     </row>
     <row r="58" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D58" s="552"/>
+      <c r="D58" s="562"/>
       <c r="E58" s="452" t="s">
         <v>85</v>
       </c>
@@ -24114,7 +24114,7 @@
       </c>
     </row>
     <row r="59" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D59" s="552"/>
+      <c r="D59" s="562"/>
       <c r="E59" s="455" t="s">
         <v>426</v>
       </c>
@@ -24144,7 +24144,7 @@
       </c>
     </row>
     <row r="60" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D60" s="552"/>
+      <c r="D60" s="562"/>
       <c r="E60" s="458" t="s">
         <v>251</v>
       </c>
@@ -24174,7 +24174,7 @@
       </c>
     </row>
     <row r="61" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D61" s="552"/>
+      <c r="D61" s="562"/>
       <c r="E61" s="455" t="s">
         <v>388</v>
       </c>
@@ -24204,7 +24204,7 @@
       </c>
     </row>
     <row r="62" spans="4:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="553"/>
+      <c r="D62" s="563"/>
       <c r="E62" s="461" t="s">
         <v>255</v>
       </c>
@@ -24234,7 +24234,7 @@
       </c>
     </row>
     <row r="63" spans="4:11" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D63" s="557" t="s">
+      <c r="D63" s="567" t="s">
         <v>126</v>
       </c>
       <c r="E63" s="452" t="s">
@@ -24266,7 +24266,7 @@
       </c>
     </row>
     <row r="64" spans="4:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D64" s="558"/>
+      <c r="D64" s="568"/>
       <c r="E64" s="455" t="s">
         <v>458</v>
       </c>
@@ -24296,7 +24296,7 @@
       </c>
     </row>
     <row r="65" spans="4:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D65" s="558"/>
+      <c r="D65" s="568"/>
       <c r="E65" s="452" t="s">
         <v>274</v>
       </c>
@@ -24326,7 +24326,7 @@
       </c>
     </row>
     <row r="66" spans="4:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D66" s="558"/>
+      <c r="D66" s="568"/>
       <c r="E66" s="455" t="s">
         <v>436</v>
       </c>
@@ -24351,7 +24351,7 @@
       </c>
     </row>
     <row r="67" spans="4:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D67" s="558"/>
+      <c r="D67" s="568"/>
       <c r="E67" s="501" t="s">
         <v>444</v>
       </c>
@@ -24380,7 +24380,7 @@
       </c>
     </row>
     <row r="68" spans="4:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D68" s="558"/>
+      <c r="D68" s="568"/>
       <c r="E68" s="505" t="s">
         <v>428</v>
       </c>
@@ -24410,7 +24410,7 @@
       </c>
     </row>
     <row r="69" spans="4:11" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D69" s="558"/>
+      <c r="D69" s="568"/>
       <c r="E69" s="503" t="s">
         <v>491</v>
       </c>
@@ -24440,7 +24440,7 @@
       </c>
     </row>
     <row r="70" spans="4:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="559"/>
+      <c r="D70" s="569"/>
       <c r="E70" s="467" t="s">
         <v>427</v>
       </c>
@@ -24470,7 +24470,7 @@
       </c>
     </row>
     <row r="71" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D71" s="549" t="s">
+      <c r="D71" s="559" t="s">
         <v>127</v>
       </c>
       <c r="E71" s="464" t="s">
@@ -24500,7 +24500,7 @@
       </c>
     </row>
     <row r="72" spans="4:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="550"/>
+      <c r="D72" s="560"/>
       <c r="E72" s="467" t="s">
         <v>437</v>
       </c>
@@ -24528,7 +24528,7 @@
       </c>
     </row>
     <row r="73" spans="4:11" x14ac:dyDescent="0.2">
-      <c r="D73" s="547"/>
+      <c r="D73" s="557"/>
       <c r="E73" s="470" t="s">
         <v>441</v>
       </c>
@@ -24558,7 +24558,7 @@
       </c>
     </row>
     <row r="74" spans="4:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="548"/>
+      <c r="D74" s="558"/>
       <c r="E74" s="473" t="s">
         <v>392</v>
       </c>
@@ -24657,7 +24657,7 @@
       <c r="J79"/>
     </row>
     <row r="80" spans="4:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D80" s="560" t="s">
+      <c r="D80" s="540" t="s">
         <v>128</v>
       </c>
       <c r="E80" s="528" t="s">
@@ -24682,7 +24682,7 @@
       <c r="J80"/>
     </row>
     <row r="81" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="560"/>
+      <c r="D81" s="540"/>
       <c r="E81" s="458" t="s">
         <v>425</v>
       </c>
@@ -24705,7 +24705,7 @@
       <c r="J81"/>
     </row>
     <row r="82" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D82" s="560"/>
+      <c r="D82" s="540"/>
       <c r="E82" s="459" t="s">
         <v>390</v>
       </c>
@@ -24728,7 +24728,7 @@
       <c r="J82"/>
     </row>
     <row r="83" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D83" s="560"/>
+      <c r="D83" s="540"/>
       <c r="E83" s="452" t="s">
         <v>387</v>
       </c>
@@ -24751,7 +24751,7 @@
       <c r="J83"/>
     </row>
     <row r="84" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D84" s="560"/>
+      <c r="D84" s="540"/>
       <c r="E84" s="459" t="s">
         <v>424</v>
       </c>
@@ -24774,7 +24774,7 @@
       <c r="J84"/>
     </row>
     <row r="85" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D85" s="560"/>
+      <c r="D85" s="540"/>
       <c r="E85" s="452" t="s">
         <v>85</v>
       </c>
@@ -24797,7 +24797,7 @@
       <c r="J85"/>
     </row>
     <row r="86" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D86" s="560"/>
+      <c r="D86" s="540"/>
       <c r="E86" s="455" t="s">
         <v>426</v>
       </c>
@@ -24820,7 +24820,7 @@
       <c r="J86"/>
     </row>
     <row r="87" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D87" s="560"/>
+      <c r="D87" s="540"/>
       <c r="E87" s="458" t="s">
         <v>251</v>
       </c>
@@ -24843,7 +24843,7 @@
       <c r="J87"/>
     </row>
     <row r="88" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D88" s="560"/>
+      <c r="D88" s="540"/>
       <c r="E88" s="455" t="s">
         <v>388</v>
       </c>
@@ -24866,7 +24866,7 @@
       <c r="J88"/>
     </row>
     <row r="89" spans="4:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D89" s="561"/>
+      <c r="D89" s="541"/>
       <c r="E89" s="461" t="s">
         <v>255</v>
       </c>
@@ -24889,7 +24889,7 @@
       <c r="J89"/>
     </row>
     <row r="90" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D90" s="562" t="s">
+      <c r="D90" s="542" t="s">
         <v>126</v>
       </c>
       <c r="E90" s="455" t="s">
@@ -24914,7 +24914,7 @@
       <c r="J90"/>
     </row>
     <row r="91" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D91" s="563"/>
+      <c r="D91" s="543"/>
       <c r="E91" s="452" t="s">
         <v>458</v>
       </c>
@@ -24937,7 +24937,7 @@
       <c r="J91"/>
     </row>
     <row r="92" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D92" s="563"/>
+      <c r="D92" s="543"/>
       <c r="E92" s="455" t="s">
         <v>274</v>
       </c>
@@ -24960,7 +24960,7 @@
       <c r="J92"/>
     </row>
     <row r="93" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D93" s="563"/>
+      <c r="D93" s="543"/>
       <c r="E93" s="501" t="s">
         <v>436</v>
       </c>
@@ -24980,7 +24980,7 @@
       <c r="J93"/>
     </row>
     <row r="94" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D94" s="563"/>
+      <c r="D94" s="543"/>
       <c r="E94" s="505" t="s">
         <v>444</v>
       </c>
@@ -25003,7 +25003,7 @@
       <c r="J94"/>
     </row>
     <row r="95" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D95" s="563"/>
+      <c r="D95" s="543"/>
       <c r="E95" s="503" t="s">
         <v>428</v>
       </c>
@@ -25026,7 +25026,7 @@
       <c r="J95"/>
     </row>
     <row r="96" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D96" s="563"/>
+      <c r="D96" s="543"/>
       <c r="E96" s="505" t="s">
         <v>491</v>
       </c>
@@ -25049,7 +25049,7 @@
       <c r="J96"/>
     </row>
     <row r="97" spans="4:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D97" s="564"/>
+      <c r="D97" s="544"/>
       <c r="E97" s="522" t="s">
         <v>427</v>
       </c>
@@ -25072,7 +25072,7 @@
       <c r="J97"/>
     </row>
     <row r="98" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D98" s="565" t="s">
+      <c r="D98" s="545" t="s">
         <v>127</v>
       </c>
       <c r="E98" s="521" t="s">
@@ -25097,7 +25097,7 @@
       <c r="J98"/>
     </row>
     <row r="99" spans="4:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="566"/>
+      <c r="D99" s="546"/>
       <c r="E99" s="522" t="s">
         <v>437</v>
       </c>
@@ -25120,7 +25120,7 @@
       <c r="J99"/>
     </row>
     <row r="100" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D100" s="562" t="s">
+      <c r="D100" s="542" t="s">
         <v>563</v>
       </c>
       <c r="E100" s="521" t="s">
@@ -25145,7 +25145,7 @@
       <c r="J100"/>
     </row>
     <row r="101" spans="4:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D101" s="569"/>
+      <c r="D101" s="549"/>
       <c r="E101" s="522" t="s">
         <v>463</v>
       </c>
@@ -25168,7 +25168,7 @@
       <c r="J101"/>
     </row>
     <row r="102" spans="4:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D102" s="567"/>
+      <c r="D102" s="547"/>
       <c r="E102" s="534" t="s">
         <v>441</v>
       </c>
@@ -25191,7 +25191,7 @@
       <c r="J102"/>
     </row>
     <row r="103" spans="4:10" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D103" s="568"/>
+      <c r="D103" s="548"/>
       <c r="E103" s="527" t="s">
         <v>392</v>
       </c>
@@ -25218,11 +25218,6 @@
     <sortCondition ref="C28:C47"/>
   </sortState>
   <mergeCells count="13">
-    <mergeCell ref="D80:D89"/>
-    <mergeCell ref="D90:D97"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D102:D103"/>
-    <mergeCell ref="D100:D101"/>
     <mergeCell ref="W3:W13"/>
     <mergeCell ref="W22:W23"/>
     <mergeCell ref="W24:W25"/>
@@ -25231,6 +25226,11 @@
     <mergeCell ref="D52:D62"/>
     <mergeCell ref="W14:W21"/>
     <mergeCell ref="D63:D70"/>
+    <mergeCell ref="D80:D89"/>
+    <mergeCell ref="D90:D97"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D102:D103"/>
+    <mergeCell ref="D100:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25801,48 +25801,48 @@
     </row>
     <row r="4" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="277"/>
-      <c r="B4" s="573" t="s">
+      <c r="B4" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="C4" s="575" t="s">
+      <c r="C4" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="570" t="s">
+      <c r="D4" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="E4" s="571"/>
-      <c r="F4" s="572"/>
+      <c r="E4" s="575"/>
+      <c r="F4" s="576"/>
       <c r="G4" s="277"/>
-      <c r="J4" s="573" t="s">
+      <c r="J4" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="K4" s="575" t="s">
+      <c r="K4" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="L4" s="570" t="s">
+      <c r="L4" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="M4" s="571"/>
-      <c r="N4" s="572"/>
-      <c r="R4" s="573" t="s">
+      <c r="M4" s="575"/>
+      <c r="N4" s="576"/>
+      <c r="R4" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="S4" s="575" t="s">
+      <c r="S4" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="T4" s="570" t="s">
+      <c r="T4" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="571"/>
-      <c r="V4" s="572"/>
+      <c r="U4" s="575"/>
+      <c r="V4" s="576"/>
       <c r="Z4" s="272" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="277"/>
-      <c r="B5" s="574"/>
-      <c r="C5" s="576"/>
+      <c r="B5" s="571"/>
+      <c r="C5" s="573"/>
       <c r="D5" s="278">
         <v>2021</v>
       </c>
@@ -25853,8 +25853,8 @@
         <v>2023</v>
       </c>
       <c r="G5" s="277"/>
-      <c r="J5" s="574"/>
-      <c r="K5" s="576"/>
+      <c r="J5" s="571"/>
+      <c r="K5" s="573"/>
       <c r="L5" s="278">
         <v>2021</v>
       </c>
@@ -25864,8 +25864,8 @@
       <c r="N5" s="280">
         <v>2023</v>
       </c>
-      <c r="R5" s="574"/>
-      <c r="S5" s="576"/>
+      <c r="R5" s="571"/>
+      <c r="S5" s="573"/>
       <c r="T5" s="278">
         <v>2021</v>
       </c>
@@ -27366,28 +27366,28 @@
       <c r="D33" s="316"/>
       <c r="E33" s="316"/>
       <c r="F33" s="316"/>
-      <c r="J33" s="573" t="s">
+      <c r="J33" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="K33" s="575" t="s">
+      <c r="K33" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="L33" s="570" t="s">
+      <c r="L33" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="M33" s="571"/>
-      <c r="N33" s="572"/>
-      <c r="R33" s="573" t="s">
+      <c r="M33" s="575"/>
+      <c r="N33" s="576"/>
+      <c r="R33" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="S33" s="575" t="s">
+      <c r="S33" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="T33" s="570" t="s">
+      <c r="T33" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="U33" s="571"/>
-      <c r="V33" s="572"/>
+      <c r="U33" s="575"/>
+      <c r="V33" s="576"/>
       <c r="Z33" s="322" t="s">
         <v>238</v>
       </c>
@@ -27420,8 +27420,8 @@
         <f>SUM(F6:F14)</f>
         <v>-68700</v>
       </c>
-      <c r="J34" s="574"/>
-      <c r="K34" s="576"/>
+      <c r="J34" s="571"/>
+      <c r="K34" s="573"/>
       <c r="L34" s="278">
         <v>2021</v>
       </c>
@@ -27431,8 +27431,8 @@
       <c r="N34" s="280">
         <v>2023</v>
       </c>
-      <c r="R34" s="574"/>
-      <c r="S34" s="576"/>
+      <c r="R34" s="571"/>
+      <c r="S34" s="573"/>
       <c r="T34" s="278">
         <v>2021</v>
       </c>
@@ -28629,28 +28629,28 @@
       <c r="V61" s="275"/>
     </row>
     <row r="62" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J62" s="573" t="s">
+      <c r="J62" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="K62" s="575" t="s">
+      <c r="K62" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="L62" s="570" t="s">
+      <c r="L62" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="M62" s="571"/>
-      <c r="N62" s="572"/>
-      <c r="R62" s="573" t="s">
+      <c r="M62" s="575"/>
+      <c r="N62" s="576"/>
+      <c r="R62" s="570" t="s">
         <v>199</v>
       </c>
-      <c r="S62" s="575" t="s">
+      <c r="S62" s="572" t="s">
         <v>200</v>
       </c>
-      <c r="T62" s="570" t="s">
+      <c r="T62" s="574" t="s">
         <v>201</v>
       </c>
-      <c r="U62" s="571"/>
-      <c r="V62" s="572"/>
+      <c r="U62" s="575"/>
+      <c r="V62" s="576"/>
       <c r="Z62" s="322" t="s">
         <v>238</v>
       </c>
@@ -28665,8 +28665,8 @@
       </c>
     </row>
     <row r="63" spans="2:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J63" s="574"/>
-      <c r="K63" s="576"/>
+      <c r="J63" s="571"/>
+      <c r="K63" s="573"/>
       <c r="L63" s="278">
         <v>2021</v>
       </c>
@@ -28676,8 +28676,8 @@
       <c r="N63" s="280">
         <v>2023</v>
       </c>
-      <c r="R63" s="574"/>
-      <c r="S63" s="576"/>
+      <c r="R63" s="571"/>
+      <c r="S63" s="573"/>
       <c r="T63" s="278">
         <v>2021</v>
       </c>
@@ -29689,6 +29689,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="T33:V33"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="S62:S63"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:V4"/>
     <mergeCell ref="J62:J63"/>
     <mergeCell ref="K62:K63"/>
     <mergeCell ref="L62:N62"/>
@@ -29697,19 +29710,6 @@
     <mergeCell ref="J33:J34"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:N33"/>
-    <mergeCell ref="T33:V33"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="S62:S63"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:V4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30683,10 +30683,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
-<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{0693b5ba-4b18-4d7b-9341-f32f400a5494}" enabled="0" method="" siteId="{0693b5ba-4b18-4d7b-9341-f32f400a5494}" removed="1"/>
-</clbl:labelList>
 </file>